--- a/doc/Estimativa de Tamanho.xlsx
+++ b/doc/Estimativa de Tamanho.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ATIVIDADE</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>[RFS20]</t>
-  </si>
-  <si>
-    <t>[RFS21]</t>
-  </si>
-  <si>
-    <t>[RFS22]</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -465,12 +459,14 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E24" si="1">D3-C3</f>
-        <v>-2</v>
+        <f t="shared" ref="E3:E22" si="1">D3-C3</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -478,12 +474,14 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +491,12 @@
       <c r="C5" s="5">
         <v>1.5</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
@@ -504,12 +504,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -517,12 +517,14 @@
         <v>8</v>
       </c>
       <c r="C7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +534,12 @@
       <c r="C8" s="5">
         <v>1.0</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -543,12 +547,14 @@
         <v>10</v>
       </c>
       <c r="C9" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -556,12 +562,14 @@
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.0</v>
+      </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -569,12 +577,12 @@
         <v>12</v>
       </c>
       <c r="C11" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12">
@@ -595,12 +603,12 @@
         <v>14</v>
       </c>
       <c r="C13" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -621,12 +629,12 @@
         <v>16</v>
       </c>
       <c r="C15" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
@@ -699,12 +707,12 @@
         <v>22</v>
       </c>
       <c r="C21" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
@@ -712,56 +720,42 @@
         <v>23</v>
       </c>
       <c r="C22" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23:E23" si="2">SUM(C3:C22)</f>
+        <v>39</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="2"/>
+        <v>-30</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="B25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9">
-        <f t="shared" ref="C25:E25" si="2">SUM(C3:C24)</f>
-        <v>42</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="2"/>
-        <v>-42</v>
-      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26">
       <c r="B26" s="11"/>
@@ -786,18 +780,6 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>

--- a/doc/Estimativa de Tamanho.xlsx
+++ b/doc/Estimativa de Tamanho.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devwa\OneDrive\Documentos\GitHub\BikeRental\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52F0323-3F45-47C1-9337-19565D6584D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Página2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ATIVIDADE</t>
   </si>
@@ -87,31 +106,52 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>[TESTE RFC1]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC2]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC3]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC4]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC5]</t>
+  </si>
+  <si>
+    <t>ANÁLISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -121,7 +161,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,27 +183,39 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -173,64 +225,55 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -420,27 +463,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,351 +507,431 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3-C3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E22" si="1">D3-C3</f>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4-C4</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>1.5</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E3:E28" si="0">D5-C5</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <f>D13-C13</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <f>D21-C21</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="8" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="9">
-        <f t="shared" ref="C23:E23" si="2">SUM(C3:C22)</f>
-        <v>39</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="2"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="C29" s="8">
+        <f>SUM(C3:C28)</f>
+        <v>44</v>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D3:D28)</f>
+        <v>15</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUM(E3:E28)</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/doc/Estimativa de Tamanho.xlsx
+++ b/doc/Estimativa de Tamanho.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devwa\OneDrive\Documentos\GitHub\BikeRental\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA27F8B-5C12-4F5D-9011-D205ED89E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Página2" sheetId="2" r:id="rId5"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Página2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ATIVIDADE</t>
   </si>
@@ -87,33 +106,47 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>[TESTE RFC01]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -121,7 +154,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,27 +176,39 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -173,64 +218,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -420,27 +459,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,351 +501,378 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E24" si="0">D3-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E22" si="1">D3-C3</f>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4-C4</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>1.5</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5-C5</f>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <f>SUM(C3:C24)</f>
+        <v>39</v>
+      </c>
+      <c r="D25" s="8">
+        <f>SUM(D3:D24)</f>
         <v>15</v>
       </c>
-      <c r="C14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9">
-        <f t="shared" ref="C23:E23" si="2">SUM(C3:C22)</f>
-        <v>39</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="2"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="E25" s="9">
+        <f>SUM(E3:E24)</f>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/doc/Estimativa de Tamanho.xlsx
+++ b/doc/Estimativa de Tamanho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devwa\OneDrive\Documentos\GitHub\BikeRental\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA27F8B-5C12-4F5D-9011-D205ED89E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D744F-A11C-4784-BBBA-12E93FC3C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ATIVIDADE</t>
   </si>
@@ -108,14 +108,29 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>[TESTE RFC01]</t>
+    <t>[TESTE RFC1]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC2]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC3]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC4]</t>
+  </si>
+  <si>
+    <t>[TESTE RFC5]</t>
+  </si>
+  <si>
+    <t>ANÁLISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -139,14 +154,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -246,9 +253,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,15 +474,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E31"/>
+  <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
@@ -503,13 +509,17 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E24" si="0">D3-C3</f>
-        <v>0</v>
+        <f>D3-C3</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -538,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f>D5-C5</f>
+        <f t="shared" ref="E5:E28" si="0">D5-C5</f>
         <v>-0.5</v>
       </c>
     </row>
@@ -564,25 +574,34 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5">
@@ -640,132 +659,136 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D13-C13</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>17</v>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>19</v>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f>D21-C21</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -778,70 +801,98 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
-        <f>SUM(C3:C24)</f>
-        <v>39</v>
-      </c>
-      <c r="D25" s="8">
-        <f>SUM(D3:D24)</f>
-        <v>15</v>
-      </c>
-      <c r="E25" s="9">
-        <f>SUM(E3:E24)</f>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="8">
+        <f>SUM(C3:C28)</f>
+        <v>44</v>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D3:D28)</f>
+        <v>26</v>
+      </c>
+      <c r="E29" s="9">
+        <f>SUM(E3:E28)</f>
+        <v>-18</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
@@ -855,10 +906,34 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
